--- a/2021_Oct_15_MD_VR_AR_MR_Headset_Specifications.xlsx
+++ b/2021_Oct_15_MD_VR_AR_MR_Headset_Specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\XR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3037C641-83B9-4B26-99E2-DE0D4D5A8EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5601F10-A04A-412A-A1A4-7B467C2BFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15473" yWindow="1830" windowWidth="12697" windowHeight="12870" xr2:uid="{84EA419A-0682-4196-9269-408A720811D0}"/>
+    <workbookView xWindow="15323" yWindow="7470" windowWidth="12697" windowHeight="12870" xr2:uid="{84EA419A-0682-4196-9269-408A720811D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Brand</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Resolution</t>
   </si>
   <si>
-    <t>Refresh Rate</t>
-  </si>
-  <si>
     <t>HTC Vive Pro</t>
   </si>
   <si>
     <t>Valve Index</t>
   </si>
   <si>
-    <t>HTC Vive</t>
-  </si>
-  <si>
     <t>Oculus Quest 2</t>
   </si>
   <si>
@@ -73,6 +67,45 @@
   </si>
   <si>
     <t>Samsung Gear VR</t>
+  </si>
+  <si>
+    <t>HTC Vive Pro 2</t>
+  </si>
+  <si>
+    <t>1440 x 1600</t>
+  </si>
+  <si>
+    <t>Refresh Rate (Hz)</t>
+  </si>
+  <si>
+    <t>2448 x 2448</t>
+  </si>
+  <si>
+    <t>90 / 120</t>
+  </si>
+  <si>
+    <t>FOV (Deg)</t>
+  </si>
+  <si>
+    <t>Focus 3</t>
+  </si>
+  <si>
+    <t>1600 x 1600</t>
+  </si>
+  <si>
+    <t>Type of USE</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Flow MR</t>
+  </si>
+  <si>
+    <t>Cost ($)</t>
   </si>
 </sst>
 </file>
@@ -108,8 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,74 +463,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DE0D61-86AB-48FC-AE08-28A7F0510901}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
